--- a/Pocket-Color/BOM/BOM_MGBC.xlsx
+++ b/Pocket-Color/BOM/BOM_MGBC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="24" windowWidth="29604" windowHeight="13776"/>
+    <workbookView xWindow="580" yWindow="20" windowWidth="29600" windowHeight="13780"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="234">
   <si>
     <t>Qty</t>
   </si>
@@ -711,6 +711,15 @@
   </si>
   <si>
     <t>VR2</t>
+  </si>
+  <si>
+    <t>COM-08184</t>
+  </si>
+  <si>
+    <t>NW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">474-COM-08184 </t>
   </si>
 </sst>
 </file>
@@ -863,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -926,6 +935,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1227,20 +1240,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H84"/>
+  <dimension ref="B3:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="43.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="6" max="6" width="43.90625" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1250,60 +1263,60 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D4" s="19" t="s">
         <v>227</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D6" s="17" t="s">
         <v>220</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="E12" s="15" t="s">
         <v>221</v>
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D13" s="13"/>
       <c r="E13" s="15" t="s">
         <v>222</v>
       </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>218</v>
       </c>
@@ -1326,7 +1339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>1</v>
       </c>
@@ -1349,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>2</v>
       </c>
@@ -1372,7 +1385,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1395,7 +1408,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -1418,7 +1431,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>5</v>
       </c>
@@ -1441,7 +1454,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>6</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>7</v>
       </c>
@@ -1487,7 +1500,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="14">
         <v>8</v>
       </c>
@@ -1510,7 +1523,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="14">
         <v>9</v>
       </c>
@@ -1533,7 +1546,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="14">
         <v>10</v>
       </c>
@@ -1556,7 +1569,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="14">
         <v>11</v>
       </c>
@@ -1579,7 +1592,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="14">
         <v>12</v>
       </c>
@@ -1602,7 +1615,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="14">
         <v>13</v>
       </c>
@@ -1625,7 +1638,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="14">
         <v>14</v>
       </c>
@@ -1648,7 +1661,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="14">
         <v>15</v>
       </c>
@@ -1671,7 +1684,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="14">
         <v>16</v>
       </c>
@@ -1694,7 +1707,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="14">
         <v>17</v>
       </c>
@@ -1717,7 +1730,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="14">
         <v>18</v>
       </c>
@@ -1740,7 +1753,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="14">
         <v>19</v>
       </c>
@@ -1763,7 +1776,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="14">
         <v>20</v>
       </c>
@@ -1786,7 +1799,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="14">
         <v>21</v>
       </c>
@@ -1809,7 +1822,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="14">
         <v>22</v>
       </c>
@@ -1832,7 +1845,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
         <v>23</v>
       </c>
@@ -1855,7 +1868,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="14">
         <v>24</v>
       </c>
@@ -1878,7 +1891,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="14">
         <v>25</v>
       </c>
@@ -1901,7 +1914,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="14">
         <v>26</v>
       </c>
@@ -1924,7 +1937,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="14">
         <v>27</v>
       </c>
@@ -1947,7 +1960,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="14">
         <v>28</v>
       </c>
@@ -1970,7 +1983,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
         <v>29</v>
       </c>
@@ -1993,7 +2006,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="14">
         <v>30</v>
       </c>
@@ -2016,7 +2029,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="14">
         <v>31</v>
       </c>
@@ -2039,7 +2052,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="14">
         <v>32</v>
       </c>
@@ -2062,7 +2075,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="14">
         <v>33</v>
       </c>
@@ -2085,7 +2098,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="14">
         <v>34</v>
       </c>
@@ -2108,7 +2121,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="14">
         <v>35</v>
       </c>
@@ -2131,7 +2144,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="14">
         <v>36</v>
       </c>
@@ -2154,7 +2167,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="14">
         <v>37</v>
       </c>
@@ -2177,7 +2190,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="14">
         <v>38</v>
       </c>
@@ -2200,7 +2213,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="14">
         <v>39</v>
       </c>
@@ -2223,7 +2236,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="14">
         <v>40</v>
       </c>
@@ -2246,7 +2259,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
         <v>41</v>
       </c>
@@ -2269,7 +2282,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="14">
         <v>42</v>
       </c>
@@ -2292,7 +2305,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="5">
         <v>43</v>
       </c>
@@ -2315,7 +2328,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="5">
         <v>44</v>
       </c>
@@ -2338,7 +2351,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="5">
         <v>45</v>
       </c>
@@ -2361,7 +2374,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="5">
         <v>46</v>
       </c>
@@ -2384,7 +2397,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="5">
         <v>47</v>
       </c>
@@ -2407,7 +2420,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="5">
         <v>48</v>
       </c>
@@ -2430,7 +2443,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="14">
         <v>49</v>
       </c>
@@ -2453,7 +2466,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <v>50</v>
       </c>
@@ -2476,7 +2489,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="5">
         <v>51</v>
       </c>
@@ -2499,7 +2512,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="5">
         <v>52</v>
       </c>
@@ -2522,7 +2535,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="5">
         <v>53</v>
       </c>
@@ -2545,7 +2558,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="5">
         <v>54</v>
       </c>
@@ -2568,7 +2581,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="5">
         <v>55</v>
       </c>
@@ -2591,7 +2604,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="14">
         <v>56</v>
       </c>
@@ -2614,7 +2627,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="5">
         <v>57</v>
       </c>
@@ -2637,7 +2650,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="5">
         <v>58</v>
       </c>
@@ -2660,7 +2673,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="14">
         <v>59</v>
       </c>
@@ -2683,7 +2696,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="14">
         <v>60</v>
       </c>
@@ -2706,7 +2719,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="5">
         <v>61</v>
       </c>
@@ -2729,7 +2742,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="5">
         <v>62</v>
       </c>
@@ -2752,7 +2765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="5">
         <v>63</v>
       </c>
@@ -2775,7 +2788,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="5">
         <v>64</v>
       </c>
@@ -2798,7 +2811,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="5">
         <v>65</v>
       </c>
@@ -2821,7 +2834,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="5">
         <v>66</v>
       </c>
@@ -2844,7 +2857,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="5">
         <v>67</v>
       </c>
@@ -2867,7 +2880,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="5">
         <v>68</v>
       </c>
@@ -2890,7 +2903,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" s="14">
         <v>69</v>
       </c>
@@ -2911,6 +2924,29 @@
       </c>
       <c r="H84" s="3" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B85" s="26">
+        <v>70</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G85" s="26">
+        <v>1</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +2968,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2945,7 +2981,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
